--- a/Energy Consumption39.xlsx
+++ b/Energy Consumption39.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.102955779011066</v>
+        <v>0.9136590783126551</v>
       </c>
       <c r="C2" t="n">
-        <v>4.24171342342845</v>
+        <v>1.683700707322582</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.933965897872358</v>
+        <v>3.602355127675703</v>
       </c>
       <c r="C3" t="n">
-        <v>8.607978921439058</v>
+        <v>3.799928533123985</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.55877344818121</v>
+        <v>4.583538481480849</v>
       </c>
       <c r="C4" t="n">
-        <v>13.01403759754915</v>
+        <v>5.575007633379273</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.87879379306679</v>
+        <v>6.116689810046933</v>
       </c>
       <c r="C5" t="n">
-        <v>17.45248378137187</v>
+        <v>7.321119304305469</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.58163569287853</v>
+        <v>6.874668290849217</v>
       </c>
       <c r="C6" t="n">
-        <v>21.79476347899429</v>
+        <v>9.124756499179981</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.89158745017011</v>
+        <v>12.64272738760497</v>
       </c>
       <c r="C7" t="n">
-        <v>26.11354914619382</v>
+        <v>10.71236735005599</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16.58095979511824</v>
+        <v>12.73712352956607</v>
       </c>
       <c r="C8" t="n">
-        <v>30.60789486811986</v>
+        <v>12.45353484821274</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.22803473901255</v>
+        <v>15.1170697183871</v>
       </c>
       <c r="C9" t="n">
-        <v>35.01014335912282</v>
+        <v>14.69169274034213</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.51826558512184</v>
+        <v>17.30975015175841</v>
       </c>
       <c r="C10" t="n">
-        <v>39.17695438402232</v>
+        <v>16.52036898181901</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.15915185873552</v>
+        <v>19.82372282953638</v>
       </c>
       <c r="C11" t="n">
-        <v>43.70073435156669</v>
+        <v>18.20514238734986</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22.92929949528541</v>
+        <v>20.10676859513826</v>
       </c>
       <c r="C12" t="n">
-        <v>48.18762153229635</v>
+        <v>20.10837165973416</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24.29824091936182</v>
+        <v>21.53475903542832</v>
       </c>
       <c r="C13" t="n">
-        <v>52.84291579727055</v>
+        <v>21.65304937383792</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>26.5705886351648</v>
+        <v>22.84015723675692</v>
       </c>
       <c r="C14" t="n">
-        <v>57.2254150389065</v>
+        <v>23.33378020994451</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28.00857733918943</v>
+        <v>28.45862209557449</v>
       </c>
       <c r="C15" t="n">
-        <v>61.99858213818376</v>
+        <v>25.0982114602135</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30.59426290685361</v>
+        <v>32.78682863864541</v>
       </c>
       <c r="C16" t="n">
-        <v>66.49084808125585</v>
+        <v>26.87610102991496</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34.02228219323101</v>
+        <v>33.63334990107052</v>
       </c>
       <c r="C17" t="n">
-        <v>70.8834984970118</v>
+        <v>28.83095017427892</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>35.26979364315233</v>
+        <v>36.31181953000279</v>
       </c>
       <c r="C18" t="n">
-        <v>75.53914922908358</v>
+        <v>30.51678714007469</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36.27739855102336</v>
+        <v>37.3120120359229</v>
       </c>
       <c r="C19" t="n">
-        <v>80.37574008780089</v>
+        <v>32.46522921557468</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>37.98363822552783</v>
+        <v>38.87509062681747</v>
       </c>
       <c r="C20" t="n">
-        <v>85.34225607181401</v>
+        <v>34.01866967722953</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>38.95035444234813</v>
+        <v>39.70431054246355</v>
       </c>
       <c r="C21" t="n">
-        <v>89.79300940907964</v>
+        <v>35.8059883368877</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.50344469875654</v>
+        <v>44.91982769538773</v>
       </c>
       <c r="C22" t="n">
-        <v>94.50847689036752</v>
+        <v>37.79632345265016</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.27892492372451</v>
+        <v>48.29623832147909</v>
       </c>
       <c r="C23" t="n">
-        <v>99.29885133969927</v>
+        <v>39.40986368251237</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>44.09171713394393</v>
+        <v>51.01951624573073</v>
       </c>
       <c r="C24" t="n">
-        <v>103.972406230785</v>
+        <v>41.18438893606005</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>45.37517494724266</v>
+        <v>51.37813468511153</v>
       </c>
       <c r="C25" t="n">
-        <v>108.5087608816982</v>
+        <v>43.06230284459767</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>46.55091438177219</v>
+        <v>52.74029464863034</v>
       </c>
       <c r="C26" t="n">
-        <v>113.6726335675751</v>
+        <v>44.68744431235028</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>48.22873166490884</v>
+        <v>54.50386636946551</v>
       </c>
       <c r="C27" t="n">
-        <v>118.7865698730644</v>
+        <v>46.30555112148593</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>49.80436941547859</v>
+        <v>54.87548333302324</v>
       </c>
       <c r="C28" t="n">
-        <v>123.0659028124514</v>
+        <v>47.87172233768119</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>51.38018885420227</v>
+        <v>57.44394973629721</v>
       </c>
       <c r="C29" t="n">
-        <v>127.8163272287563</v>
+        <v>49.74663066837538</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>53.5250274544199</v>
+        <v>58.19371234746801</v>
       </c>
       <c r="C30" t="n">
-        <v>132.5730589411472</v>
+        <v>51.53826430886667</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>54.49550007068367</v>
+        <v>61.05161607736118</v>
       </c>
       <c r="C31" t="n">
-        <v>137.5798067693077</v>
+        <v>53.29391997002056</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>57.27601384020435</v>
+        <v>66.58562711849606</v>
       </c>
       <c r="C32" t="n">
-        <v>142.0348900322672</v>
+        <v>54.88388479987154</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>59.38278727642872</v>
+        <v>74.80288205734669</v>
       </c>
       <c r="C33" t="n">
-        <v>146.7659737284231</v>
+        <v>56.60695658848047</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>61.82074166697807</v>
+        <v>75.74048677556678</v>
       </c>
       <c r="C34" t="n">
-        <v>151.2412455321094</v>
+        <v>58.42355015082547</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>64.17774295295617</v>
+        <v>77.64500024892949</v>
       </c>
       <c r="C35" t="n">
-        <v>155.8172674670199</v>
+        <v>60.16795501091609</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>65.17627905319544</v>
+        <v>78.56925677134853</v>
       </c>
       <c r="C36" t="n">
-        <v>160.3692528918685</v>
+        <v>61.87360595942839</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>65.32306741780469</v>
+        <v>78.81318145183432</v>
       </c>
       <c r="C37" t="n">
-        <v>164.5947989081866</v>
+        <v>63.84052000165484</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68.01208054474203</v>
+        <v>78.99111476734312</v>
       </c>
       <c r="C38" t="n">
-        <v>169.2296137512223</v>
+        <v>65.48939221638673</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>70.3743222320623</v>
+        <v>79.75796682416843</v>
       </c>
       <c r="C39" t="n">
-        <v>173.7986882473416</v>
+        <v>67.77190893764906</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>74.41455191086698</v>
+        <v>82.17438814882016</v>
       </c>
       <c r="C40" t="n">
-        <v>178.6874395872157</v>
+        <v>69.42334877475976</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>78.15587507562809</v>
+        <v>82.59806165452208</v>
       </c>
       <c r="C41" t="n">
-        <v>183.0717588427269</v>
+        <v>71.26117643576106</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>78.84371026569259</v>
+        <v>84.11122107056853</v>
       </c>
       <c r="C42" t="n">
-        <v>187.6730516069001</v>
+        <v>73.11046073806814</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>81.88608642596186</v>
+        <v>86.94059514999302</v>
       </c>
       <c r="C43" t="n">
-        <v>192.7601783647552</v>
+        <v>74.82242569141349</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>85.34740884980081</v>
+        <v>89.40139508607268</v>
       </c>
       <c r="C44" t="n">
-        <v>197.2500791760277</v>
+        <v>76.4434027924929</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>85.95992897964912</v>
+        <v>90.82586510426854</v>
       </c>
       <c r="C45" t="n">
-        <v>201.6412763651212</v>
+        <v>78.05868930261877</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>88.02066768358826</v>
+        <v>92.46536369502256</v>
       </c>
       <c r="C46" t="n">
-        <v>206.0323243739503</v>
+        <v>80.06676556254101</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>91.32023815963498</v>
+        <v>94.2167820233657</v>
       </c>
       <c r="C47" t="n">
-        <v>211.0301100445875</v>
+        <v>81.65322110015174</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>93.09388057538739</v>
+        <v>94.68071828299796</v>
       </c>
       <c r="C48" t="n">
-        <v>215.6074259524278</v>
+        <v>83.57905938231887</v>
       </c>
     </row>
     <row r="49">
@@ -967,21 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>97.39474228982289</v>
+        <v>98.52989125910187</v>
       </c>
       <c r="C49" t="n">
-        <v>220.4674692563609</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>98.98532059471675</v>
-      </c>
-      <c r="C50" t="n">
-        <v>224.6985924302841</v>
+        <v>85.55676270936725</v>
       </c>
     </row>
   </sheetData>
